--- a/resources/templates/orders.xlsx
+++ b/resources/templates/orders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docker\html\generation\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docker\html\hoaql\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,30 +24,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Mã Đơn Hàng</t>
+  </si>
+  <si>
+    <t>Đại lý</t>
+  </si>
+  <si>
+    <t>SDT Đại lý</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Lương (VND)</t>
+  </si>
+  <si>
+    <t>Đơn giá (VND)</t>
+  </si>
+  <si>
+    <t>Thưởng (VND)</t>
+  </si>
+  <si>
+    <t>Túi</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Ngày Tạo</t>
+  </si>
+  <si>
+    <t>NV Kinh doanh</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Phí VC Thu hộ</t>
+  </si>
+  <si>
+    <t>Phí VC cty trả</t>
+  </si>
+  <si>
+    <t>Tiền phải thu</t>
+  </si>
+  <si>
+    <t>Đơn vị VC</t>
+  </si>
+  <si>
+    <t>Số DT VC</t>
+  </si>
+  <si>
+    <t>Mã VC</t>
+  </si>
+  <si>
+    <t>Trạng thái đơn</t>
+  </si>
+  <si>
+    <t>NV Giao vận</t>
   </si>
 </sst>
 </file>
@@ -382,21 +424,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="55.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="4.25" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,11 +468,56 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/templates/orders.xlsx
+++ b/resources/templates/orders.xlsx
@@ -29,42 +29,15 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã Đơn Hàng</t>
-  </si>
-  <si>
     <t>Đại lý</t>
   </si>
   <si>
-    <t>SDT Đại lý</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Lương (VND)</t>
-  </si>
-  <si>
     <t>Đơn giá (VND)</t>
   </si>
   <si>
-    <t>Thưởng (VND)</t>
-  </si>
-  <si>
-    <t>Túi</t>
-  </si>
-  <si>
-    <t>Hộp</t>
-  </si>
-  <si>
-    <t>Ngày Tạo</t>
-  </si>
-  <si>
-    <t>NV Kinh doanh</t>
-  </si>
-  <si>
     <t>Thành tiền</t>
   </si>
   <si>
@@ -77,12 +50,6 @@
     <t>Tiền phải thu</t>
   </si>
   <si>
-    <t>Đơn vị VC</t>
-  </si>
-  <si>
-    <t>Số DT VC</t>
-  </si>
-  <si>
     <t>Mã VC</t>
   </si>
   <si>
@@ -90,6 +57,39 @@
   </si>
   <si>
     <t>NV Giao vận</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Mã Đơn</t>
+  </si>
+  <si>
+    <t>Số hộp</t>
+  </si>
+  <si>
+    <t>Số túi</t>
+  </si>
+  <si>
+    <t>Số túi Nylon</t>
+  </si>
+  <si>
+    <t>Số thùng Carton</t>
+  </si>
+  <si>
+    <t>Số tem Holo</t>
+  </si>
+  <si>
+    <t>Tặng</t>
+  </si>
+  <si>
+    <t>NVKinh doanh</t>
+  </si>
+  <si>
+    <t>Lương(VND)</t>
+  </si>
+  <si>
+    <t>Thưởng(VND)</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -453,67 +453,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">

--- a/resources/templates/orders.xlsx
+++ b/resources/templates/orders.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="468" windowWidth="38400" windowHeight="21138" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Đơn giá (VND)</t>
-  </si>
-  <si>
     <t>Thành tiền</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Mã VC</t>
   </si>
   <si>
-    <t>Trạng thái đơn</t>
-  </si>
-  <si>
     <t>NV Giao vận</t>
   </si>
   <si>
@@ -86,10 +80,28 @@
     <t>NVKinh doanh</t>
   </si>
   <si>
-    <t>Lương(VND)</t>
-  </si>
-  <si>
-    <t>Thưởng(VND)</t>
+    <t>SDT Đại lý</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trực thuộc </t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Thưởng</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Đơn vị VC</t>
   </si>
 </sst>
 </file>
@@ -424,100 +436,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="5.375" customWidth="1"/>
-    <col min="11" max="11" width="4.25" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="4" max="7" width="11.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" customWidth="1"/>
+    <col min="9" max="9" width="8.34765625" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="5.34765625" customWidth="1"/>
+    <col min="14" max="14" width="4.25" customWidth="1"/>
+    <col min="16" max="16" width="9.69921875" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="13.09765625" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.6">
       <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
